--- a/src/test/java/cn/juntaozhang/lintcode/Backpack.xlsx
+++ b/src/test/java/cn/juntaozhang/lintcode/Backpack.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juntao/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juntaozhang/src/juntaozhang/LintCode/src/test/java/cn/juntaozhang/lintcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="46">
   <si>
     <t>2, 3, 5, 7</t>
   </si>
@@ -61,13 +61,123 @@
   </si>
   <si>
     <t>Backpack</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>max(dp[i],A[m-2]+1)</t>
+  </si>
+  <si>
+    <t>max(dp[i],A[m-5]+2)</t>
+  </si>
+  <si>
+    <t>max(dp[i],A[m-7]+4)</t>
+  </si>
+  <si>
+    <t>max(dp[i],A[m-3]+5)</t>
+  </si>
+  <si>
+    <t>value =&gt; 1, 5, 2, 4</t>
+  </si>
+  <si>
+    <t>size=&gt;2, 3, 5, 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        m(size)
+size</t>
+  </si>
+  <si>
+    <t>m-size&gt;=0</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>--------&gt;</t>
+  </si>
+  <si>
+    <t>&lt;--------</t>
+  </si>
+  <si>
+    <t>2,3,6,7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           m
+weight</t>
+  </si>
+  <si>
+    <t>dp[i]+=A[m-2]</t>
+  </si>
+  <si>
+    <t>dp[i]+=A[m-3]</t>
+  </si>
+  <si>
+    <t>dp[i]+=A[m-6]</t>
+  </si>
+  <si>
+    <t>dp[i]+=A[m-7]</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>dp[i]+=A[m-1]</t>
+  </si>
+  <si>
+    <t>dp[i]+=A[m-4]</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>重复选择+唯一排列+装满可能性总数</t>
+  </si>
+  <si>
+    <t>单次选择+装满可能性总数</t>
+  </si>
+  <si>
+    <t>重复选择+不同排列+装满可能性总数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           m
+num</t>
+  </si>
+  <si>
+    <t>dp[4] += dp[4-num]</t>
+  </si>
+  <si>
+    <t>dp[3] += dp[3-num]</t>
+  </si>
+  <si>
+    <t>dp[2] += dp[2-num]</t>
+  </si>
+  <si>
+    <t>|
+|
+V</t>
+  </si>
+  <si>
+    <t>final</t>
+  </si>
+  <si>
+    <t>dp[1] += dp[1-num]</t>
+  </si>
+  <si>
+    <t>dp[i]=∑dp[i-a[j]]   { i-a[j]&gt;0},  a[j]确定的情况下递归dp[i-a[j]]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -87,8 +197,18 @@
       <color rgb="FFC7254E"/>
       <name val="Menlo"/>
     </font>
+    <font>
+      <sz val="21"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -98,6 +218,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -123,20 +255,53 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -149,6 +314,255 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>393700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2476500" y="3263900"/>
+          <a:ext cx="368300" cy="393700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Connector 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2476500" y="3263900"/>
+          <a:ext cx="812800" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="252249" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2463800" y="3429000"/>
+          <a:ext cx="252249" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>a</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="575927" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2717800" y="3378200"/>
+          <a:ext cx="575927" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>weight</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="297325" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3073400" y="3213100"/>
+          <a:ext cx="297325" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>m</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -414,531 +828,1958 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E2:T20"/>
+  <dimension ref="C2:U64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="18" max="19" width="11" customWidth="1"/>
-    <col min="20" max="20" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="17" width="10.83203125" style="6"/>
+    <col min="18" max="19" width="11" style="6" customWidth="1"/>
+    <col min="20" max="20" width="17.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:20" x14ac:dyDescent="0.2">
-      <c r="E2" s="5" t="s">
+    <row r="2" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="5" spans="5:20" ht="17" x14ac:dyDescent="0.2">
-      <c r="E5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="8" spans="5:20" ht="32" x14ac:dyDescent="0.2">
-      <c r="E8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2">
-        <v>2</v>
-      </c>
-      <c r="I8" s="2">
-        <v>3</v>
-      </c>
-      <c r="J8" s="2">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="3:20" ht="17" x14ac:dyDescent="0.2">
+      <c r="D3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+    </row>
+    <row r="4" spans="3:20" ht="32" x14ac:dyDescent="0.2">
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1</v>
+      </c>
+      <c r="H4" s="8">
+        <v>2</v>
+      </c>
+      <c r="I4" s="8">
+        <v>3</v>
+      </c>
+      <c r="J4" s="8">
         <v>4</v>
       </c>
-      <c r="K8" s="2">
-        <v>5</v>
-      </c>
-      <c r="L8" s="2">
-        <v>6</v>
-      </c>
-      <c r="M8" s="2">
+      <c r="K4" s="8">
+        <v>5</v>
+      </c>
+      <c r="L4" s="8">
+        <v>6</v>
+      </c>
+      <c r="M4" s="8">
         <v>7</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N4" s="8">
         <v>8</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O4" s="8">
         <v>9</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P4" s="8">
         <v>10</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q4" s="8">
         <v>11</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R4" s="8">
         <v>12</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S4" s="8">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="5:20" x14ac:dyDescent="0.2">
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-      <c r="J9">
-        <v>2</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>2</v>
-      </c>
-      <c r="M9">
-        <v>2</v>
-      </c>
-      <c r="N9">
-        <v>2</v>
-      </c>
-      <c r="O9">
-        <v>2</v>
-      </c>
-      <c r="P9">
-        <v>2</v>
-      </c>
-      <c r="Q9">
-        <v>2</v>
-      </c>
-      <c r="R9">
-        <v>2</v>
-      </c>
-      <c r="T9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="5:20" x14ac:dyDescent="0.2">
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
-        <v>2</v>
-      </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
-      <c r="J10">
-        <v>3</v>
-      </c>
-      <c r="K10">
-        <v>5</v>
-      </c>
-      <c r="L10">
-        <v>5</v>
-      </c>
-      <c r="M10">
-        <v>5</v>
-      </c>
-      <c r="N10">
-        <v>5</v>
-      </c>
-      <c r="O10">
-        <v>5</v>
-      </c>
-      <c r="P10">
-        <v>5</v>
-      </c>
-      <c r="Q10">
-        <v>5</v>
-      </c>
-      <c r="R10">
-        <v>5</v>
-      </c>
-      <c r="T10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="5:20" x14ac:dyDescent="0.2">
-      <c r="E11">
-        <v>5</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <v>2</v>
-      </c>
-      <c r="I11" s="4">
-        <v>3</v>
-      </c>
-      <c r="J11" s="4">
-        <v>3</v>
-      </c>
-      <c r="K11">
-        <v>5</v>
-      </c>
-      <c r="L11">
-        <v>5</v>
-      </c>
-      <c r="M11">
-        <v>5</v>
-      </c>
-      <c r="N11">
+    <row r="5" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C5" s="2"/>
+      <c r="E5" s="6">
+        <v>2</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>2</v>
+      </c>
+      <c r="I5" s="6">
+        <v>2</v>
+      </c>
+      <c r="J5" s="6">
+        <v>2</v>
+      </c>
+      <c r="K5" s="6">
+        <v>2</v>
+      </c>
+      <c r="L5" s="6">
+        <v>2</v>
+      </c>
+      <c r="M5" s="6">
+        <v>2</v>
+      </c>
+      <c r="N5" s="6">
+        <v>2</v>
+      </c>
+      <c r="O5" s="6">
+        <v>2</v>
+      </c>
+      <c r="P5" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>2</v>
+      </c>
+      <c r="R5" s="6">
+        <v>2</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C6" s="2"/>
+      <c r="E6" s="6">
+        <v>3</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <v>2</v>
+      </c>
+      <c r="I6" s="6">
+        <v>3</v>
+      </c>
+      <c r="J6" s="6">
+        <v>3</v>
+      </c>
+      <c r="K6" s="6">
+        <v>5</v>
+      </c>
+      <c r="L6" s="6">
+        <v>5</v>
+      </c>
+      <c r="M6" s="6">
+        <v>5</v>
+      </c>
+      <c r="N6" s="6">
+        <v>5</v>
+      </c>
+      <c r="O6" s="6">
+        <v>5</v>
+      </c>
+      <c r="P6" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>5</v>
+      </c>
+      <c r="R6" s="6">
+        <v>5</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C7" s="2"/>
+      <c r="E7" s="6">
+        <v>5</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <v>2</v>
+      </c>
+      <c r="I7" s="9">
+        <v>3</v>
+      </c>
+      <c r="J7" s="9">
+        <v>3</v>
+      </c>
+      <c r="K7" s="6">
+        <v>5</v>
+      </c>
+      <c r="L7" s="6">
+        <v>5</v>
+      </c>
+      <c r="M7" s="6">
+        <v>5</v>
+      </c>
+      <c r="N7" s="6">
         <v>8</v>
       </c>
-      <c r="O11">
+      <c r="O7" s="6">
         <v>8</v>
       </c>
-      <c r="P11">
+      <c r="P7" s="6">
         <v>10</v>
       </c>
-      <c r="Q11">
+      <c r="Q7" s="6">
         <v>10</v>
       </c>
-      <c r="R11">
+      <c r="R7" s="6">
         <v>10</v>
       </c>
-      <c r="T11" t="s">
+      <c r="T7" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="5:20" x14ac:dyDescent="0.2">
-      <c r="E12">
+    <row r="8" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C8" s="2"/>
+      <c r="E8" s="6">
         <v>7</v>
       </c>
-      <c r="F12" s="4">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
-        <v>2</v>
-      </c>
-      <c r="I12" s="4">
-        <v>3</v>
-      </c>
-      <c r="J12" s="4">
-        <v>3</v>
-      </c>
-      <c r="K12" s="4">
-        <v>5</v>
-      </c>
-      <c r="L12" s="4">
-        <v>5</v>
-      </c>
-      <c r="M12">
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <v>2</v>
+      </c>
+      <c r="I8" s="9">
+        <v>3</v>
+      </c>
+      <c r="J8" s="9">
+        <v>3</v>
+      </c>
+      <c r="K8" s="9">
+        <v>5</v>
+      </c>
+      <c r="L8" s="9">
+        <v>5</v>
+      </c>
+      <c r="M8" s="6">
         <v>7</v>
       </c>
-      <c r="N12">
+      <c r="N8" s="6">
         <v>8</v>
       </c>
-      <c r="O12">
+      <c r="O8" s="6">
         <v>9</v>
       </c>
-      <c r="P12">
+      <c r="P8" s="6">
         <v>10</v>
       </c>
-      <c r="Q12">
+      <c r="Q8" s="6">
         <v>10</v>
       </c>
-      <c r="R12">
+      <c r="R8" s="6">
         <v>12</v>
       </c>
-      <c r="T12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="5:20" x14ac:dyDescent="0.2">
-      <c r="E15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="5:20" ht="32" x14ac:dyDescent="0.2">
-      <c r="E16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2">
-        <v>2</v>
-      </c>
-      <c r="I16" s="2">
-        <v>3</v>
-      </c>
-      <c r="J16" s="2">
+      <c r="T8" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C11" s="2"/>
+      <c r="D11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="3:20" ht="32" x14ac:dyDescent="0.2">
+      <c r="C12" s="2"/>
+      <c r="E12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1</v>
+      </c>
+      <c r="H12" s="8">
+        <v>2</v>
+      </c>
+      <c r="I12" s="8">
+        <v>3</v>
+      </c>
+      <c r="J12" s="8">
         <v>4</v>
       </c>
-      <c r="K16" s="2">
-        <v>5</v>
-      </c>
-      <c r="L16" s="2">
-        <v>6</v>
-      </c>
-      <c r="M16" s="2">
+      <c r="K12" s="8">
+        <v>5</v>
+      </c>
+      <c r="L12" s="8">
+        <v>6</v>
+      </c>
+      <c r="M12" s="8">
         <v>7</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N12" s="8">
         <v>8</v>
       </c>
-      <c r="O16" s="2">
+      <c r="O12" s="8">
         <v>9</v>
       </c>
-      <c r="P16" s="2">
+      <c r="P12" s="8">
         <v>10</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="Q12" s="8">
         <v>11</v>
       </c>
-      <c r="R16" s="2">
+      <c r="R12" s="8">
         <v>12</v>
       </c>
-      <c r="S16" s="2">
+      <c r="S12" s="8">
         <v>13</v>
       </c>
-      <c r="T16" t="s">
+      <c r="T12" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="5:20" x14ac:dyDescent="0.2">
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0</v>
-      </c>
-      <c r="G17" s="4">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>3</v>
-      </c>
-      <c r="J17">
-        <v>3</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>3</v>
-      </c>
-      <c r="M17">
-        <v>3</v>
-      </c>
-      <c r="N17">
-        <v>3</v>
-      </c>
-      <c r="O17">
-        <v>3</v>
-      </c>
-      <c r="P17">
-        <v>3</v>
-      </c>
-      <c r="Q17">
-        <v>3</v>
-      </c>
-      <c r="R17">
-        <v>3</v>
-      </c>
-      <c r="S17">
-        <v>3</v>
-      </c>
-      <c r="T17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="5:20" x14ac:dyDescent="0.2">
-      <c r="E18">
+    <row r="13" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C13" s="2"/>
+      <c r="E13" s="6">
+        <v>3</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
+        <v>3</v>
+      </c>
+      <c r="J13" s="6">
+        <v>3</v>
+      </c>
+      <c r="K13" s="6">
+        <v>3</v>
+      </c>
+      <c r="L13" s="6">
+        <v>3</v>
+      </c>
+      <c r="M13" s="6">
+        <v>3</v>
+      </c>
+      <c r="N13" s="6">
+        <v>3</v>
+      </c>
+      <c r="O13" s="6">
+        <v>3</v>
+      </c>
+      <c r="P13" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>3</v>
+      </c>
+      <c r="R13" s="6">
+        <v>3</v>
+      </c>
+      <c r="S13" s="6">
+        <v>3</v>
+      </c>
+      <c r="T13" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C14" s="2"/>
+      <c r="E14" s="6">
         <v>4</v>
       </c>
-      <c r="F18" s="4">
-        <v>0</v>
-      </c>
-      <c r="G18" s="4">
-        <v>0</v>
-      </c>
-      <c r="H18" s="4">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
-        <v>3</v>
-      </c>
-      <c r="J18">
+      <c r="F14" s="9">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0</v>
+      </c>
+      <c r="I14" s="9">
+        <v>3</v>
+      </c>
+      <c r="J14" s="6">
         <v>4</v>
       </c>
-      <c r="K18">
+      <c r="K14" s="6">
         <v>4</v>
       </c>
-      <c r="L18">
+      <c r="L14" s="6">
         <v>4</v>
       </c>
-      <c r="M18">
+      <c r="M14" s="6">
         <v>7</v>
       </c>
-      <c r="N18">
+      <c r="N14" s="6">
         <v>7</v>
       </c>
-      <c r="O18">
+      <c r="O14" s="6">
         <v>7</v>
       </c>
-      <c r="P18">
+      <c r="P14" s="6">
         <v>7</v>
       </c>
-      <c r="Q18">
+      <c r="Q14" s="6">
         <v>7</v>
       </c>
-      <c r="R18">
+      <c r="R14" s="6">
         <v>7</v>
       </c>
-      <c r="S18">
+      <c r="S14" s="6">
         <v>7</v>
       </c>
-      <c r="T18" t="s">
+      <c r="T14" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="5:20" x14ac:dyDescent="0.2">
-      <c r="E19">
+    <row r="15" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C15" s="2"/>
+      <c r="E15" s="6">
         <v>8</v>
       </c>
-      <c r="F19" s="4">
-        <v>0</v>
-      </c>
-      <c r="G19" s="4">
-        <v>0</v>
-      </c>
-      <c r="H19" s="4">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4">
-        <v>3</v>
-      </c>
-      <c r="J19" s="4">
+      <c r="F15" s="9">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0</v>
+      </c>
+      <c r="I15" s="9">
+        <v>3</v>
+      </c>
+      <c r="J15" s="9">
         <v>4</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K15" s="9">
         <v>4</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L15" s="9">
         <v>4</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M15" s="9">
         <v>7</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N15" s="10">
         <v>8</v>
       </c>
-      <c r="O19" s="6">
+      <c r="O15" s="10">
         <v>8</v>
       </c>
-      <c r="P19" s="6">
+      <c r="P15" s="10">
         <v>8</v>
       </c>
-      <c r="Q19" s="6">
+      <c r="Q15" s="10">
         <v>11</v>
       </c>
-      <c r="R19" s="6">
+      <c r="R15" s="10">
         <v>12</v>
       </c>
-      <c r="S19" s="6">
+      <c r="S15" s="10">
         <v>12</v>
       </c>
-      <c r="T19" t="s">
+      <c r="T15" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="5:20" x14ac:dyDescent="0.2">
-      <c r="E20">
-        <v>5</v>
-      </c>
-      <c r="F20" s="4">
-        <v>0</v>
-      </c>
-      <c r="G20" s="4">
-        <v>0</v>
-      </c>
-      <c r="H20" s="4">
-        <v>0</v>
-      </c>
-      <c r="I20" s="4">
-        <v>3</v>
-      </c>
-      <c r="J20" s="4">
+    <row r="16" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C16" s="2"/>
+      <c r="E16" s="6">
+        <v>5</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0</v>
+      </c>
+      <c r="I16" s="9">
+        <v>3</v>
+      </c>
+      <c r="J16" s="9">
         <v>4</v>
       </c>
-      <c r="K20" s="6">
-        <v>5</v>
-      </c>
-      <c r="L20" s="6">
-        <v>5</v>
-      </c>
-      <c r="M20" s="6">
+      <c r="K16" s="10">
+        <v>5</v>
+      </c>
+      <c r="L16" s="10">
+        <v>5</v>
+      </c>
+      <c r="M16" s="10">
         <v>7</v>
       </c>
-      <c r="N20" s="6">
+      <c r="N16" s="10">
         <v>8</v>
       </c>
-      <c r="O20" s="6">
+      <c r="O16" s="10">
         <v>9</v>
       </c>
-      <c r="P20" s="6">
+      <c r="P16" s="10">
         <v>9</v>
       </c>
-      <c r="Q20" s="6">
+      <c r="Q16" s="10">
         <v>11</v>
       </c>
-      <c r="R20" s="6">
+      <c r="R16" s="10">
         <v>12</v>
       </c>
-      <c r="S20" s="6">
+      <c r="S16" s="10">
         <v>13</v>
       </c>
-      <c r="T20" t="s">
+      <c r="T16" s="6" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="17" spans="3:21" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="1"/>
+      <c r="I19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="O19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+    </row>
+    <row r="20" spans="3:21" ht="32" x14ac:dyDescent="0.2">
+      <c r="C20" s="2"/>
+      <c r="E20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8">
+        <v>1</v>
+      </c>
+      <c r="H20" s="8">
+        <v>2</v>
+      </c>
+      <c r="I20" s="8">
+        <v>3</v>
+      </c>
+      <c r="J20" s="8">
+        <v>4</v>
+      </c>
+      <c r="K20" s="8">
+        <v>5</v>
+      </c>
+      <c r="L20" s="8">
+        <v>6</v>
+      </c>
+      <c r="M20" s="8">
+        <v>7</v>
+      </c>
+      <c r="N20" s="8">
+        <v>8</v>
+      </c>
+      <c r="O20" s="8">
+        <v>9</v>
+      </c>
+      <c r="P20" s="8">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>11</v>
+      </c>
+      <c r="R20" s="8">
+        <v>12</v>
+      </c>
+      <c r="S20" s="8">
+        <v>13</v>
+      </c>
+      <c r="T20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U20" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C21" s="2"/>
+      <c r="E21" s="6">
+        <v>2</v>
+      </c>
+      <c r="F21" s="9">
+        <v>0</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6">
+        <v>1</v>
+      </c>
+      <c r="I21" s="6">
+        <v>1</v>
+      </c>
+      <c r="J21" s="6">
+        <v>1</v>
+      </c>
+      <c r="K21" s="6">
+        <v>1</v>
+      </c>
+      <c r="L21" s="6">
+        <v>1</v>
+      </c>
+      <c r="M21" s="6">
+        <v>1</v>
+      </c>
+      <c r="N21" s="6">
+        <v>1</v>
+      </c>
+      <c r="O21" s="6">
+        <v>1</v>
+      </c>
+      <c r="P21" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>1</v>
+      </c>
+      <c r="R21" s="6">
+        <v>1</v>
+      </c>
+      <c r="S21" s="6">
+        <v>1</v>
+      </c>
+      <c r="T21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="U21" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C22" s="2"/>
+      <c r="E22" s="6">
+        <v>3</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9">
+        <v>1</v>
+      </c>
+      <c r="I22" s="6">
+        <v>5</v>
+      </c>
+      <c r="J22" s="6">
+        <v>5</v>
+      </c>
+      <c r="K22" s="6">
+        <v>6</v>
+      </c>
+      <c r="L22" s="6">
+        <v>6</v>
+      </c>
+      <c r="M22" s="6">
+        <v>6</v>
+      </c>
+      <c r="N22" s="6">
+        <v>6</v>
+      </c>
+      <c r="O22" s="6">
+        <v>6</v>
+      </c>
+      <c r="P22" s="6">
+        <v>6</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>6</v>
+      </c>
+      <c r="R22" s="6">
+        <v>6</v>
+      </c>
+      <c r="S22" s="6">
+        <v>6</v>
+      </c>
+      <c r="T22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="U22" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C23" s="2"/>
+      <c r="E23" s="6">
+        <v>5</v>
+      </c>
+      <c r="F23" s="9">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0</v>
+      </c>
+      <c r="H23" s="9">
+        <v>1</v>
+      </c>
+      <c r="I23" s="9">
+        <v>5</v>
+      </c>
+      <c r="J23" s="9">
+        <v>5</v>
+      </c>
+      <c r="K23" s="6">
+        <v>6</v>
+      </c>
+      <c r="L23" s="6">
+        <v>6</v>
+      </c>
+      <c r="M23" s="6">
+        <v>6</v>
+      </c>
+      <c r="N23" s="6">
+        <v>7</v>
+      </c>
+      <c r="O23" s="6">
+        <v>7</v>
+      </c>
+      <c r="P23" s="6">
+        <v>8</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>8</v>
+      </c>
+      <c r="R23" s="6">
+        <v>8</v>
+      </c>
+      <c r="S23" s="6">
+        <v>8</v>
+      </c>
+      <c r="T23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="U23" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C24" s="2"/>
+      <c r="E24" s="6">
+        <v>7</v>
+      </c>
+      <c r="F24" s="9">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0</v>
+      </c>
+      <c r="H24" s="9">
+        <v>1</v>
+      </c>
+      <c r="I24" s="9">
+        <v>5</v>
+      </c>
+      <c r="J24" s="9">
+        <v>5</v>
+      </c>
+      <c r="K24" s="9">
+        <v>6</v>
+      </c>
+      <c r="L24" s="9">
+        <v>6</v>
+      </c>
+      <c r="M24" s="6">
+        <v>6</v>
+      </c>
+      <c r="N24" s="6">
+        <v>7</v>
+      </c>
+      <c r="O24" s="6">
+        <v>7</v>
+      </c>
+      <c r="P24" s="6">
+        <v>9</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>9</v>
+      </c>
+      <c r="R24" s="6">
+        <v>10</v>
+      </c>
+      <c r="S24" s="6">
+        <v>10</v>
+      </c>
+      <c r="T24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="U24" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="1"/>
+      <c r="I27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="O27" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+    </row>
+    <row r="28" spans="3:21" ht="32" x14ac:dyDescent="0.2">
+      <c r="C28" s="2"/>
+      <c r="E28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="8">
+        <v>0</v>
+      </c>
+      <c r="G28" s="8">
+        <v>1</v>
+      </c>
+      <c r="H28" s="8">
+        <v>2</v>
+      </c>
+      <c r="I28" s="8">
+        <v>3</v>
+      </c>
+      <c r="J28" s="8">
+        <v>4</v>
+      </c>
+      <c r="K28" s="8">
+        <v>5</v>
+      </c>
+      <c r="L28" s="8">
+        <v>6</v>
+      </c>
+      <c r="M28" s="8">
+        <v>7</v>
+      </c>
+      <c r="N28" s="8">
+        <v>8</v>
+      </c>
+      <c r="O28" s="8">
+        <v>9</v>
+      </c>
+      <c r="P28" s="8">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="8">
+        <v>11</v>
+      </c>
+      <c r="R28" s="8">
+        <v>12</v>
+      </c>
+      <c r="S28" s="8">
+        <v>13</v>
+      </c>
+      <c r="T28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U28" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C29" s="2"/>
+      <c r="E29" s="6">
+        <v>2</v>
+      </c>
+      <c r="F29" s="10">
+        <v>0</v>
+      </c>
+      <c r="G29" s="10">
+        <v>0</v>
+      </c>
+      <c r="H29" s="10">
+        <v>1</v>
+      </c>
+      <c r="I29" s="10">
+        <v>1</v>
+      </c>
+      <c r="J29" s="10">
+        <v>2</v>
+      </c>
+      <c r="K29" s="10">
+        <v>2</v>
+      </c>
+      <c r="L29" s="10">
+        <v>3</v>
+      </c>
+      <c r="M29" s="10">
+        <v>3</v>
+      </c>
+      <c r="N29" s="6">
+        <v>4</v>
+      </c>
+      <c r="O29" s="6">
+        <v>4</v>
+      </c>
+      <c r="P29" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="6">
+        <v>5</v>
+      </c>
+      <c r="R29" s="6">
+        <v>6</v>
+      </c>
+      <c r="S29" s="6">
+        <v>6</v>
+      </c>
+      <c r="T29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="U29" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C30" s="2"/>
+      <c r="E30" s="6">
+        <v>3</v>
+      </c>
+      <c r="F30" s="10">
+        <v>0</v>
+      </c>
+      <c r="G30" s="10">
+        <v>0</v>
+      </c>
+      <c r="H30" s="10">
+        <v>1</v>
+      </c>
+      <c r="I30" s="10">
+        <v>5</v>
+      </c>
+      <c r="J30" s="10">
+        <v>5</v>
+      </c>
+      <c r="K30" s="10">
+        <v>6</v>
+      </c>
+      <c r="L30" s="10">
+        <v>10</v>
+      </c>
+      <c r="M30" s="10">
+        <v>10</v>
+      </c>
+      <c r="N30" s="6">
+        <v>11</v>
+      </c>
+      <c r="O30" s="6">
+        <v>15</v>
+      </c>
+      <c r="P30" s="6">
+        <v>15</v>
+      </c>
+      <c r="Q30" s="6">
+        <v>16</v>
+      </c>
+      <c r="R30" s="6">
+        <v>20</v>
+      </c>
+      <c r="S30" s="6">
+        <v>20</v>
+      </c>
+      <c r="T30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="U30" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C31" s="2"/>
+      <c r="E31" s="6">
+        <v>5</v>
+      </c>
+      <c r="F31" s="10">
+        <v>0</v>
+      </c>
+      <c r="G31" s="10">
+        <v>0</v>
+      </c>
+      <c r="H31" s="10">
+        <v>1</v>
+      </c>
+      <c r="I31" s="10">
+        <v>5</v>
+      </c>
+      <c r="J31" s="10">
+        <v>5</v>
+      </c>
+      <c r="K31" s="10">
+        <v>6</v>
+      </c>
+      <c r="L31" s="10">
+        <v>10</v>
+      </c>
+      <c r="M31" s="10">
+        <v>10</v>
+      </c>
+      <c r="N31" s="6">
+        <v>11</v>
+      </c>
+      <c r="O31" s="6">
+        <v>15</v>
+      </c>
+      <c r="P31" s="6">
+        <v>15</v>
+      </c>
+      <c r="Q31" s="6">
+        <v>16</v>
+      </c>
+      <c r="R31" s="6">
+        <v>20</v>
+      </c>
+      <c r="S31" s="6">
+        <v>20</v>
+      </c>
+      <c r="T31" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="U31" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C32" s="2"/>
+      <c r="E32" s="6">
+        <v>7</v>
+      </c>
+      <c r="F32" s="10">
+        <v>0</v>
+      </c>
+      <c r="G32" s="10">
+        <v>0</v>
+      </c>
+      <c r="H32" s="10">
+        <v>1</v>
+      </c>
+      <c r="I32" s="10">
+        <v>5</v>
+      </c>
+      <c r="J32" s="10">
+        <v>5</v>
+      </c>
+      <c r="K32" s="10">
+        <v>6</v>
+      </c>
+      <c r="L32" s="10">
+        <v>10</v>
+      </c>
+      <c r="M32" s="10">
+        <v>10</v>
+      </c>
+      <c r="N32" s="6">
+        <v>11</v>
+      </c>
+      <c r="O32" s="6">
+        <v>15</v>
+      </c>
+      <c r="P32" s="6">
+        <v>15</v>
+      </c>
+      <c r="Q32" s="6">
+        <v>16</v>
+      </c>
+      <c r="R32" s="6">
+        <v>20</v>
+      </c>
+      <c r="S32" s="6">
+        <v>20</v>
+      </c>
+      <c r="T32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="U32" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="3:20" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+      <c r="C33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C34" s="2"/>
+      <c r="E34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="H34" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+    </row>
+    <row r="35" spans="3:20" ht="32" x14ac:dyDescent="0.2">
+      <c r="C35" s="2"/>
+      <c r="E35" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="8">
+        <v>0</v>
+      </c>
+      <c r="G35" s="8">
+        <v>1</v>
+      </c>
+      <c r="H35" s="8">
+        <v>2</v>
+      </c>
+      <c r="I35" s="8">
+        <v>3</v>
+      </c>
+      <c r="J35" s="8">
+        <v>4</v>
+      </c>
+      <c r="K35" s="8">
+        <v>5</v>
+      </c>
+      <c r="L35" s="8">
+        <v>6</v>
+      </c>
+      <c r="M35" s="8">
+        <v>7</v>
+      </c>
+      <c r="N35" s="8">
+        <v>8</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+    </row>
+    <row r="36" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C36" s="2"/>
+      <c r="E36" s="6">
+        <v>2</v>
+      </c>
+      <c r="F36" s="6">
+        <v>1</v>
+      </c>
+      <c r="G36" s="6">
+        <v>0</v>
+      </c>
+      <c r="H36" s="6">
+        <v>1</v>
+      </c>
+      <c r="I36" s="6">
+        <v>0</v>
+      </c>
+      <c r="J36" s="6">
+        <v>1</v>
+      </c>
+      <c r="K36" s="6">
+        <v>0</v>
+      </c>
+      <c r="L36" s="6">
+        <v>1</v>
+      </c>
+      <c r="M36" s="6">
+        <v>0</v>
+      </c>
+      <c r="N36" s="6">
+        <v>1</v>
+      </c>
+      <c r="T36" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C37" s="2"/>
+      <c r="E37" s="6">
+        <v>3</v>
+      </c>
+      <c r="F37" s="6">
+        <v>1</v>
+      </c>
+      <c r="G37" s="6">
+        <v>0</v>
+      </c>
+      <c r="H37" s="6">
+        <v>1</v>
+      </c>
+      <c r="I37" s="6">
+        <v>1</v>
+      </c>
+      <c r="J37" s="6">
+        <v>1</v>
+      </c>
+      <c r="K37" s="6">
+        <v>1</v>
+      </c>
+      <c r="L37" s="6">
+        <v>2</v>
+      </c>
+      <c r="M37" s="6">
+        <v>1</v>
+      </c>
+      <c r="N37" s="6">
+        <v>2</v>
+      </c>
+      <c r="T37" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C38" s="2"/>
+      <c r="E38" s="6">
+        <v>6</v>
+      </c>
+      <c r="F38" s="6">
+        <v>1</v>
+      </c>
+      <c r="G38" s="6">
+        <v>0</v>
+      </c>
+      <c r="H38" s="6">
+        <v>1</v>
+      </c>
+      <c r="I38" s="6">
+        <v>1</v>
+      </c>
+      <c r="J38" s="6">
+        <v>1</v>
+      </c>
+      <c r="K38" s="6">
+        <v>1</v>
+      </c>
+      <c r="L38" s="6">
+        <v>3</v>
+      </c>
+      <c r="M38" s="6">
+        <v>1</v>
+      </c>
+      <c r="N38" s="6">
+        <v>3</v>
+      </c>
+      <c r="T38" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C39" s="2"/>
+      <c r="E39" s="6">
+        <v>7</v>
+      </c>
+      <c r="F39" s="6">
+        <v>1</v>
+      </c>
+      <c r="G39" s="6">
+        <v>0</v>
+      </c>
+      <c r="H39" s="6">
+        <v>1</v>
+      </c>
+      <c r="I39" s="6">
+        <v>1</v>
+      </c>
+      <c r="J39" s="6">
+        <v>1</v>
+      </c>
+      <c r="K39" s="6">
+        <v>1</v>
+      </c>
+      <c r="L39" s="6">
+        <v>3</v>
+      </c>
+      <c r="M39" s="6">
+        <v>2</v>
+      </c>
+      <c r="N39" s="6">
+        <v>3</v>
+      </c>
+      <c r="T39" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+    </row>
+    <row r="42" spans="3:20" ht="32" x14ac:dyDescent="0.2">
+      <c r="C42" s="2"/>
+      <c r="E42" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" s="8">
+        <v>0</v>
+      </c>
+      <c r="G42" s="8">
+        <v>1</v>
+      </c>
+      <c r="H42" s="8">
+        <v>2</v>
+      </c>
+      <c r="I42" s="8">
+        <v>3</v>
+      </c>
+      <c r="J42" s="8">
+        <v>4</v>
+      </c>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+    </row>
+    <row r="43" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C43" s="2"/>
+      <c r="E43" s="6">
+        <v>1</v>
+      </c>
+      <c r="F43" s="6">
+        <v>1</v>
+      </c>
+      <c r="G43" s="6">
+        <v>1</v>
+      </c>
+      <c r="H43" s="6">
+        <v>1</v>
+      </c>
+      <c r="I43" s="6">
+        <v>1</v>
+      </c>
+      <c r="J43" s="6">
+        <v>1</v>
+      </c>
+      <c r="T43" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C44" s="2"/>
+      <c r="E44" s="6">
+        <v>2</v>
+      </c>
+      <c r="F44" s="6">
+        <v>1</v>
+      </c>
+      <c r="G44" s="6">
+        <v>1</v>
+      </c>
+      <c r="H44" s="6">
+        <v>2</v>
+      </c>
+      <c r="I44" s="6">
+        <v>2</v>
+      </c>
+      <c r="J44" s="6">
+        <v>3</v>
+      </c>
+      <c r="T44" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C45" s="2"/>
+      <c r="E45" s="6">
+        <v>4</v>
+      </c>
+      <c r="F45" s="6">
+        <v>1</v>
+      </c>
+      <c r="G45" s="6">
+        <v>1</v>
+      </c>
+      <c r="H45" s="6">
+        <v>2</v>
+      </c>
+      <c r="I45" s="6">
+        <v>2</v>
+      </c>
+      <c r="J45" s="6">
+        <v>4</v>
+      </c>
+      <c r="T45" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="3:20" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="3:20" ht="27" x14ac:dyDescent="0.3">
+      <c r="D47" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C48" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+    </row>
+    <row r="49" spans="3:20" ht="32" x14ac:dyDescent="0.2">
+      <c r="C49" s="2"/>
+      <c r="E49" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49" s="8">
+        <v>0</v>
+      </c>
+      <c r="G49" s="8">
+        <v>1</v>
+      </c>
+      <c r="H49" s="8">
+        <v>2</v>
+      </c>
+      <c r="I49" s="8">
+        <v>3</v>
+      </c>
+      <c r="J49" s="8">
+        <v>4</v>
+      </c>
+      <c r="K49" s="8">
+        <v>5</v>
+      </c>
+      <c r="L49" s="8">
+        <v>6</v>
+      </c>
+      <c r="M49" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C50" s="2"/>
+      <c r="E50" s="6">
+        <v>1</v>
+      </c>
+      <c r="F50" s="6">
+        <v>1</v>
+      </c>
+      <c r="G50" s="6">
+        <v>1</v>
+      </c>
+      <c r="H50" s="6">
+        <v>0</v>
+      </c>
+      <c r="I50" s="6">
+        <v>0</v>
+      </c>
+      <c r="J50" s="6">
+        <v>0</v>
+      </c>
+      <c r="K50" s="6">
+        <v>0</v>
+      </c>
+      <c r="L50" s="6">
+        <v>0</v>
+      </c>
+      <c r="M50" s="6">
+        <v>0</v>
+      </c>
+      <c r="T50" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C51" s="2"/>
+      <c r="E51" s="6">
+        <v>2</v>
+      </c>
+      <c r="F51" s="6">
+        <v>1</v>
+      </c>
+      <c r="G51" s="6">
+        <v>1</v>
+      </c>
+      <c r="H51" s="6">
+        <v>1</v>
+      </c>
+      <c r="I51" s="6">
+        <v>1</v>
+      </c>
+      <c r="J51" s="6">
+        <v>0</v>
+      </c>
+      <c r="K51" s="6">
+        <v>0</v>
+      </c>
+      <c r="L51" s="6">
+        <v>0</v>
+      </c>
+      <c r="M51" s="6">
+        <v>0</v>
+      </c>
+      <c r="T51" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C52" s="2"/>
+      <c r="E52" s="6">
+        <v>3</v>
+      </c>
+      <c r="F52" s="6">
+        <v>1</v>
+      </c>
+      <c r="G52" s="6">
+        <v>1</v>
+      </c>
+      <c r="H52" s="6">
+        <v>1</v>
+      </c>
+      <c r="I52" s="6">
+        <v>2</v>
+      </c>
+      <c r="J52" s="6">
+        <v>1</v>
+      </c>
+      <c r="K52" s="6">
+        <v>1</v>
+      </c>
+      <c r="L52" s="6">
+        <v>1</v>
+      </c>
+      <c r="M52" s="6">
+        <v>0</v>
+      </c>
+      <c r="T52" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C53" s="2"/>
+      <c r="E53" s="6">
+        <v>3</v>
+      </c>
+      <c r="F53" s="6">
+        <v>1</v>
+      </c>
+      <c r="G53" s="6">
+        <v>1</v>
+      </c>
+      <c r="H53" s="6">
+        <v>1</v>
+      </c>
+      <c r="I53" s="6">
+        <v>3</v>
+      </c>
+      <c r="J53" s="6">
+        <v>2</v>
+      </c>
+      <c r="K53" s="6">
+        <v>2</v>
+      </c>
+      <c r="L53" s="6">
+        <v>3</v>
+      </c>
+      <c r="M53" s="6">
+        <v>1</v>
+      </c>
+      <c r="T53" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C54" s="2"/>
+      <c r="E54" s="6">
+        <v>7</v>
+      </c>
+      <c r="F54" s="6">
+        <v>1</v>
+      </c>
+      <c r="G54" s="6">
+        <v>1</v>
+      </c>
+      <c r="H54" s="6">
+        <v>1</v>
+      </c>
+      <c r="I54" s="6">
+        <v>3</v>
+      </c>
+      <c r="J54" s="6">
+        <v>2</v>
+      </c>
+      <c r="K54" s="6">
+        <v>2</v>
+      </c>
+      <c r="L54" s="6">
+        <v>3</v>
+      </c>
+      <c r="M54" s="6">
+        <v>2</v>
+      </c>
+      <c r="T54" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="3:20" ht="27" x14ac:dyDescent="0.3">
+      <c r="D56" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+    </row>
+    <row r="58" spans="3:20" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D58" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F58" s="8">
+        <v>0</v>
+      </c>
+      <c r="G58" s="8">
+        <v>1</v>
+      </c>
+      <c r="H58" s="8">
+        <v>2</v>
+      </c>
+      <c r="I58" s="8">
+        <v>3</v>
+      </c>
+      <c r="J58" s="8">
+        <v>4</v>
+      </c>
+      <c r="L58" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M58" s="8">
+        <v>0</v>
+      </c>
+      <c r="N58" s="8">
+        <v>1</v>
+      </c>
+      <c r="O58" s="8">
+        <v>2</v>
+      </c>
+      <c r="P58" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="D59" s="16"/>
+      <c r="F59" s="6">
+        <v>1</v>
+      </c>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="M59" s="6">
+        <v>1</v>
+      </c>
+      <c r="N59" s="10"/>
+      <c r="O59" s="10"/>
+      <c r="P59" s="10"/>
+      <c r="Q59" s="10"/>
+      <c r="T59" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="D60" s="16"/>
+      <c r="E60" s="6">
+        <v>1</v>
+      </c>
+      <c r="G60" s="6">
+        <v>1</v>
+      </c>
+      <c r="H60" s="17">
+        <v>1</v>
+      </c>
+      <c r="I60" s="17">
+        <v>2</v>
+      </c>
+      <c r="J60" s="17">
+        <v>3</v>
+      </c>
+      <c r="L60" s="6">
+        <v>2</v>
+      </c>
+      <c r="N60" s="6">
+        <v>0</v>
+      </c>
+      <c r="O60" s="17">
+        <v>1</v>
+      </c>
+      <c r="P60" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="17">
+        <v>2</v>
+      </c>
+      <c r="T60" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="D61" s="16"/>
+      <c r="E61" s="6">
+        <v>2</v>
+      </c>
+      <c r="H61" s="6">
+        <v>1</v>
+      </c>
+      <c r="I61" s="17">
+        <v>1</v>
+      </c>
+      <c r="J61" s="17">
+        <v>2</v>
+      </c>
+      <c r="L61" s="6">
+        <v>3</v>
+      </c>
+      <c r="P61" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="17">
+        <v>1</v>
+      </c>
+      <c r="T61" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="D62" s="16"/>
+      <c r="E62" s="6">
+        <v>4</v>
+      </c>
+      <c r="J62" s="17">
+        <v>1</v>
+      </c>
+      <c r="L62" s="6">
+        <v>1</v>
+      </c>
+      <c r="N62" s="6">
+        <v>1</v>
+      </c>
+      <c r="O62" s="6">
+        <v>1</v>
+      </c>
+      <c r="P62" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q62" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="E63" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" s="6">
+        <v>1</v>
+      </c>
+      <c r="G63" s="6">
+        <f>SUM(G60:G62)</f>
+        <v>1</v>
+      </c>
+      <c r="H63" s="6">
+        <f>SUM(H60:H62)</f>
+        <v>2</v>
+      </c>
+      <c r="I63" s="6">
+        <f>SUM(I60:I62)</f>
+        <v>3</v>
+      </c>
+      <c r="J63" s="6">
+        <f>SUM(J60:J62)</f>
+        <v>6</v>
+      </c>
+      <c r="L63" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M63" s="6">
+        <v>1</v>
+      </c>
+      <c r="N63" s="6">
+        <f>SUM(N60:N62)</f>
+        <v>1</v>
+      </c>
+      <c r="O63" s="6">
+        <f>SUM(O60:O62)</f>
+        <v>2</v>
+      </c>
+      <c r="P63" s="6">
+        <f>SUM(P60:P62)</f>
+        <v>4</v>
+      </c>
+      <c r="Q63" s="6">
+        <f>SUM(Q60:Q62)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="G64" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H64" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I64" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J64" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="N64" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="O64" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="P64" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q64" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E15:G15"/>
+  <mergeCells count="22">
+    <mergeCell ref="D58:D62"/>
+    <mergeCell ref="J56:P56"/>
+    <mergeCell ref="G48:K48"/>
+    <mergeCell ref="C48:C54"/>
+    <mergeCell ref="C33:C45"/>
+    <mergeCell ref="H57:L57"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="G41:K41"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="O19:S19"/>
+    <mergeCell ref="O27:S27"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="E19:F19"/>
     <mergeCell ref="E2:G2"/>
+    <mergeCell ref="C4:C16"/>
+    <mergeCell ref="D11:T11"/>
+    <mergeCell ref="D3:S3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>